--- a/game_data_final/AN Brescia vs  Szolonki VSC.xlsx
+++ b/game_data_final/AN Brescia vs  Szolonki VSC.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>Number of Passes</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Kickout Position</t>
+  </si>
+  <si>
+    <t>Ended In 3-3</t>
   </si>
   <si>
     <t>5m</t>
@@ -245,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10.0"/>
@@ -294,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -304,14 +304,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -435,407 +432,407 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3">
-        <v>43527.0</v>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>10.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
         <v>2.0</v>
       </c>
-      <c r="D2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="D2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="3">
         <v>1.0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="5">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="3">
         <v>0.0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="5">
+        <v>28</v>
+      </c>
+      <c r="L2" s="3">
         <v>6.0</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>0.0</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5">
+        <v>29</v>
+      </c>
+      <c r="O2" s="3">
         <v>0.0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="S2" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="S2" s="5">
         <v>0.3034722222222222</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>0.2902777777777778</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="3">
         <v>4.0</v>
       </c>
-      <c r="V2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X2" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>30</v>
+      <c r="V2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3">
         <v>4.0</v>
       </c>
-      <c r="D3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="3">
         <v>1.0</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="5">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="3">
         <v>0.0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="5">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3">
         <v>3.0</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>1.0</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="5">
+        <v>26</v>
+      </c>
+      <c r="O3" s="3">
         <v>0.0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S3" s="9">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="S3" s="8">
         <v>0.19444444444444445</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <v>0.19236111111111112</v>
       </c>
-      <c r="U3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>33</v>
+      <c r="U3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>13.0</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S4" s="9">
+      <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="S4" s="8">
         <v>0.1</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <v>0.08611111111111111</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <v>3.0</v>
       </c>
-      <c r="V4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X4" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>36</v>
+      <c r="V4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>9.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3">
         <v>6.0</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="3">
         <v>1.0</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I5" s="5">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="3">
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="5">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3">
         <v>4.0</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>1.0</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="5">
+        <v>39</v>
+      </c>
+      <c r="O5" s="3">
         <v>0.0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R5" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R5" s="3">
         <v>2.0</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>0.21041666666666667</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>0.19722222222222222</v>
       </c>
-      <c r="U5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="W5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>39</v>
+      <c r="U5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>10.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3">
         <v>5.0</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="5">
+        <v>42</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="3">
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="M6" s="5">
+        <v>44</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="3">
         <v>1.0</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="5">
+        <v>45</v>
+      </c>
+      <c r="O6" s="3">
         <v>0.0</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R6" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R6" s="3">
         <v>2.0</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>0.17777777777777778</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>0.16666666666666666</v>
       </c>
-      <c r="U6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X6" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>45</v>
+      <c r="U6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2">
         <v>1.0</v>
@@ -843,538 +840,538 @@
       <c r="D7" s="2">
         <v>1.0</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.0</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I7" s="5">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="3">
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="5">
+        <v>28</v>
+      </c>
+      <c r="L7" s="3">
         <v>6.0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <v>0.0</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="5">
+        <v>49</v>
+      </c>
+      <c r="O7" s="3">
         <v>1.0</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R7" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R7" s="3">
         <v>2.0</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>0.07013888888888889</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>0.05416666666666667</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="3">
         <v>2.0</v>
       </c>
-      <c r="V7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X7" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>49</v>
+      <c r="V7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>1.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="5">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3">
         <v>4.0</v>
       </c>
-      <c r="D8" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="5">
+        <v>26</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="3">
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="5">
+        <v>44</v>
+      </c>
+      <c r="L8" s="3">
         <v>5.0</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>1.0</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="5">
+        <v>52</v>
+      </c>
+      <c r="O8" s="3">
         <v>0.0</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R8" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R8" s="3">
         <v>2.0</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>0.04097222222222222</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>0.03680555555555556</v>
       </c>
-      <c r="U8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X8" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>52</v>
+      <c r="U8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="5">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3">
         <v>3.0</v>
       </c>
-      <c r="D9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="3">
         <v>0.0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I9" s="5">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I9" s="3">
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="M9" s="5">
+        <v>44</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M9" s="3">
         <v>1.0</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" s="5">
+        <v>55</v>
+      </c>
+      <c r="O9" s="3">
         <v>0.0</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R9" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R9" s="3">
         <v>3.0</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>0.3076388888888889</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>0.2951388888888889</v>
       </c>
-      <c r="U9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X9" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>55</v>
+      <c r="U9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>8.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="5">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3">
         <v>6.0</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="3">
         <v>0.0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="5">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="3">
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="5">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3">
         <v>4.0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>1.0</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="5">
+        <v>59</v>
+      </c>
+      <c r="O10" s="3">
         <v>0.0</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R10" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R10" s="3">
         <v>3.0</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>0.27708333333333335</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>0.26319444444444445</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="3">
         <v>2.0</v>
       </c>
-      <c r="V10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W10" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X10" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>59</v>
+      <c r="V10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>3.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="5">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="3">
         <v>1.0</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="I11" s="5">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="I11" s="3">
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="5">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3">
         <v>4.0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>1.0</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O11" s="5">
+        <v>62</v>
+      </c>
+      <c r="O11" s="3">
         <v>0.0</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R11" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R11" s="3">
         <v>3.0</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>0.24583333333333332</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>0.2388888888888889</v>
       </c>
-      <c r="U11" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X11" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>62</v>
+      <c r="U11" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>7.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="5">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="5">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="3">
         <v>0.0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="5">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3">
         <v>4.0</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>1.0</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="5">
+        <v>65</v>
+      </c>
+      <c r="O12" s="3">
         <v>0.0</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R12" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R12" s="3">
         <v>3.0</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>0.15833333333333333</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>0.14652777777777778</v>
       </c>
-      <c r="U12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="V12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X12" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>65</v>
+      <c r="U12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>9.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="5">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="3">
         <v>0.0</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="5">
+        <v>26</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="3">
         <v>0.0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O13" s="5">
+        <v>68</v>
+      </c>
+      <c r="O13" s="3">
         <v>0.0</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="R13" s="5">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R13" s="3">
         <v>3.0</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="5">
         <v>0.11041666666666666</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>0.09375</v>
       </c>
-      <c r="U13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X13" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>68</v>
+      <c r="U13" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>7.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2">
         <v>1.0</v>
@@ -1382,26 +1379,26 @@
       <c r="D14" s="2">
         <v>1.0</v>
       </c>
-      <c r="E14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1.0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="5">
+        <v>26</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="3">
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2">
         <v>6.0</v>
@@ -1410,143 +1407,143 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14" s="5">
+        <v>72</v>
+      </c>
+      <c r="O14" s="3">
         <v>0.0</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="R14" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4.0</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>0.1798611111111111</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>0.16805555555555557</v>
       </c>
-      <c r="U14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="V14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="X14" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>72</v>
+      <c r="U14" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>6.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="5">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="3">
         <v>0.0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="5">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="3">
         <v>0.0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="O15" s="10"/>
       <c r="P15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="R15" s="5">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="R15" s="3">
         <v>4.0</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="5">
         <v>0.13541666666666666</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>0.12361111111111112</v>
       </c>
-      <c r="U15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="V15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="W15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="X15" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>75</v>
+      <c r="U15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="14"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/game_data_final/AN Brescia vs  Szolonki VSC.xlsx
+++ b/game_data_final/AN Brescia vs  Szolonki VSC.xlsx
@@ -79,7 +79,7 @@
     <t>Kickout Position</t>
   </si>
   <si>
-    <t>Ended In 3-3</t>
+    <t>End 3-3</t>
   </si>
   <si>
     <t>5m</t>
